--- a/Docs/lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Laptop\e\VVSS\CamiVVSS_ro2024-2025\Labs\Lab01\CheckListsAll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanes\Documents\facultate\an3\sem2\VVSS\Docs\lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C988F33-E974-4516-BC95-27D0B68ECC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F62E50-8D72-4EAB-92E0-F65FF51BBB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="14595" tabRatio="650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -135,19 +133,275 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):</t>
+  </si>
+  <si>
+    <t>Brenner Vanessa Noemi</t>
+  </si>
+  <si>
+    <t>Sima Alin</t>
+  </si>
+  <si>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R02</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>Nu exista role names.</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>In ce format se afiseaza datele? (Ex: tabelar sau lista, toate detaliile se afiseaza?)</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>In ce format se afiseaza informatiile?</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>Nu sunt mentionate care sunt valorile initiale ale filtrelor pentru perioada de timp</t>
+  </si>
+  <si>
+    <t>Primele 2 propoz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar fi mai clar daca ar da mai multe detalii despre nevoile utilizatorului (i.e. Definirea nevoii de gestionare a taskului). Poate unele functionalitati nu se aliniaza cu ce doreste de fapt utilizatorul (sunt in plus sau lipsesc). </t>
+  </si>
+  <si>
+    <t>Persoana activa este un concept cam vag care merita detaliat (categoria de varsta, gen, scop, aria in care lucreaza acea persoana, etc).</t>
+  </si>
+  <si>
+    <t>Ce fel de aplicatie va fi: web, mobile, desktop? Care sunt conditiile in care o sa se utilizeze aplicatia?</t>
+  </si>
+  <si>
+    <t>Nu este definit ce inseamna un task activ sau nu si cum un task poate deveni activ sau nu</t>
+  </si>
+  <si>
+    <t>Ce se intampla daca adaug un task in acelasi interval de timp ca altul?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce inseamna ca un task sa fie intr-o anumita perioada? </t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>ArrayTaskList si LinkedTaskList: se folosesc doua clase cu acelasi scop, dar nu este clar de ce e nevoie de amandoua</t>
+  </si>
+  <si>
+    <t>Diagrama nu face nicio mențiune despre strategii de gestionare a erorilor.</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>Exista cateva (ex: NewEditController line 198)</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exista cateva </t>
+  </si>
+  <si>
+    <t>Exista cateva (ex: Controller line 114)</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nu exista </t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Nu exista</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>nu exista</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>Nu sunt erori in loops</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Nu se diferentiaza edit si add</t>
+  </si>
+  <si>
+    <t>Controller, 36, 39</t>
+  </si>
+  <si>
+    <t>Generic types used without type arguments</t>
+  </si>
+  <si>
+    <t>public static TableView mainTable; public  TableView tasks;</t>
+  </si>
+  <si>
+    <t>public static TableView&lt;Task&gt; mainTable; public  TableView&lt;Task&gt; tasks;</t>
+  </si>
+  <si>
+    <t>LinkedTaskList, 135</t>
+  </si>
+  <si>
+    <t>Unused "private" methods should be removed</t>
+  </si>
+  <si>
+    <t>metoda privata setTask() nefolosita</t>
+  </si>
+  <si>
+    <t>metoda setTask() e eliminata</t>
+  </si>
+  <si>
+    <t>NewEditController, 80</t>
+  </si>
+  <si>
+    <t>switch statements should have at least 3 "case" clauses</t>
+  </si>
+  <si>
+    <t>switch cu doar doua cazuri</t>
+  </si>
+  <si>
+    <t>switch ul e inlocuit cu if</t>
+  </si>
+  <si>
+    <t>DataService, 34, 41</t>
+  </si>
+  <si>
+    <t>static base class members should not be accessed via derived types</t>
+  </si>
+  <si>
+    <t>Calendar calendar = GregorianCalendar.getInstance();</t>
+  </si>
+  <si>
+    <t>Calendar calendar = Calendar.getInstance();</t>
+  </si>
+  <si>
+    <t>TaskService, 50</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>cod comentat</t>
+  </si>
+  <si>
+    <t>codul comentat a fost sters</t>
+  </si>
+  <si>
+    <t>TaskService, 43, 49</t>
+  </si>
+  <si>
+    <t>Local variables should not be declared and then immediately returned or thrown</t>
+  </si>
+  <si>
+    <t>variabila initializata cu o valoare dupa care este returnata direct</t>
+  </si>
+  <si>
+    <t>returnarea directa a valorii</t>
+  </si>
+  <si>
+    <t>TaskIO, 18, 19, 20</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>constante definite cu litere mici</t>
+  </si>
+  <si>
+    <t>constante definite cu litere mari dupa cum e conventia</t>
+  </si>
+  <si>
+    <t>TaskIO, 25, 47, 73, 87, 123, 136</t>
+  </si>
+  <si>
+    <t>Try-with-resources should be used</t>
+  </si>
+  <si>
+    <t>try-finally in loc de try-with-resources</t>
+  </si>
+  <si>
+    <t>try-finally inlocuit cu try-with-resources</t>
+  </si>
+  <si>
+    <t>Clasa NewEditController ar trebui sa se numeasca doar EditController</t>
+  </si>
+  <si>
+    <t>TasksService nu contine metode de editare sau stergere a taskurilor si are cateva metode ale caror nume ne sugereaza ca ar trebui sa apartina mai mult de DateService sau o clasa de utilitati (parseFromStringToSeconds, formTimeUnit, getIntervalInHours)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,8 +480,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +517,12 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -326,79 +599,108 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,101 +1008,109 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.9296875" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.9296875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.90625" style="6"/>
+    <col min="10" max="10" width="14.46484375" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.9296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="30"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="32"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -814,155 +1124,217 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
+        <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B26" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="11" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -985,98 +1357,106 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="22.08984375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.9296875" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.9296875" style="6"/>
+    <col min="9" max="9" width="22.06640625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.9296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="33"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="35"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1090,164 +1470,185 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C28" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1258,6 +1659,7 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D5:E5"/>
   </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1268,101 +1670,109 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.265625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="5" max="5" width="41.46484375" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.9296875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.9296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="H4" s="17" t="s">
+      <c r="E4" s="36"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C5" s="16" t="s">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="H5" s="17" t="s">
+      <c r="E5" s="38"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1376,132 +1786,185 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="43"/>
+      <c r="E10" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
-        <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B29" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="43"/>
+      <c r="E20" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="44"/>
+      <c r="E23" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1510,34 +1973,34 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1546,7 +2009,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1555,21 +2018,14 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="C31" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="1">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1592,90 +2048,98 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="6"/>
-    <col min="2" max="2" width="12.26953125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6328125" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="6"/>
-    <col min="9" max="9" width="26.7265625" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="6"/>
+    <col min="1" max="1" width="8.9296875" style="6"/>
+    <col min="2" max="2" width="12.265625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.73046875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="38.19921875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="35.46484375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="26.86328125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.9296875" style="6"/>
+    <col min="9" max="9" width="26.73046875" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.9296875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="H3" s="17" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C4" s="16" t="s">
+      <c r="I3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="16">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="H4" s="17" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="H5" s="17" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1692,86 +2156,150 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C11" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1781,7 +2309,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1791,7 +2319,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1801,7 +2329,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1811,7 +2339,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1821,7 +2349,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1831,7 +2359,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1841,7 +2369,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1851,7 +2379,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1861,7 +2389,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1871,7 +2399,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1881,7 +2409,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1891,7 +2419,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1901,16 +2429,18 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="33" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C32" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.35">
-      <c r="F35" s="35"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.45">
+      <c r="F35" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
